--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadm\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B3D3A6-0D4A-443D-B4A9-0F03079159D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0EDAC-D146-4A3F-9B69-2CD1779D39C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{3BCDB3D5-EAD6-4F54-B15C-2092EAD9518F}"/>
   </bookViews>
@@ -39,22 +39,22 @@
     <t>отсчетов в секунду</t>
   </si>
   <si>
-    <t>окно4</t>
+    <t>4</t>
   </si>
   <si>
-    <t>окно 8</t>
+    <t>8</t>
   </si>
   <si>
-    <t>окно 16</t>
+    <t>16</t>
   </si>
   <si>
-    <t>окно 32</t>
+    <t>32</t>
   </si>
   <si>
-    <t>окно 64</t>
+    <t>64</t>
   </si>
   <si>
-    <t>окно 128</t>
+    <t>128</t>
   </si>
 </sst>
 </file>
@@ -93,11 +93,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -222,22 +222,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>окно4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>окно 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>окно 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>окно 32</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>окно 64</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>окно 128</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -249,22 +249,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>23255813</c:v>
+                  <c:v>38461538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16393442</c:v>
+                  <c:v>38461538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12195121</c:v>
+                  <c:v>31250000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7407407</c:v>
+                  <c:v>38461538</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4166666</c:v>
+                  <c:v>37037037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2237136</c:v>
+                  <c:v>38461538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,22 +559,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>окно4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>окно 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>окно 16</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>окно 32</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>окно 64</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>окно 128</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -586,22 +586,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25641025</c:v>
+                  <c:v>35714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16666666</c:v>
+                  <c:v>35714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12048192</c:v>
+                  <c:v>35714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7246376</c:v>
+                  <c:v>32258064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4166666</c:v>
+                  <c:v>35714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2178649</c:v>
+                  <c:v>35714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2280,27 +2280,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4DB877-C9C1-46A9-B969-F6FC25216CA9}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2311,112 +2313,112 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>23255813</v>
+        <v>38461538</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>16393442</v>
+        <v>38461538</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12195121</v>
+        <v>31250000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7407407</v>
+        <v>38461538</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4166666</v>
+        <v>37037037</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2237136</v>
+        <v>38461538</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>25641025</v>
+        <v>35714285</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>16666666</v>
+        <v>35714285</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>12048192</v>
+        <v>35714285</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>7246376</v>
+        <v>32258064</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>4166666</v>
+        <v>35714285</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17">
-        <v>2178649</v>
+        <v>35714285</v>
       </c>
     </row>
   </sheetData>
